--- a/story/Activity Story 活动剧情/act3d0 Heart of Surging Flame 蓝火之心 青く燃ゆる心/level_act3d0_04_end.xlsx
+++ b/story/Activity Story 活动剧情/act3d0 Heart of Surging Flame 蓝火之心 青く燃ゆる心/level_act3d0_04_end.xlsx
@@ -380,7 +380,7 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">[name="Hellagur"]   Another example - she once hunted down an entire patrol group. This patrol was notorious for killing people at Columbia's border. Calling themselves "Conquerors of the Barbarians," their violence towards other races brought about many tragedies.
+    <t xml:space="preserve">[name="Hellagur"]   Another example - she once hunted down an entire patrol group. This patrol was notorious for killing people at Columbia's border. Calling themselves 'Conquerors of the Barbarians,' their violence towards other races brought about many tragedies.
 </t>
   </si>
   <si>

--- a/story/Activity Story 活动剧情/act3d0 Heart of Surging Flame 蓝火之心 青く燃ゆる心/level_act3d0_04_end.xlsx
+++ b/story/Activity Story 活动剧情/act3d0 Heart of Surging Flame 蓝火之心 青く燃ゆる心/level_act3d0_04_end.xlsx
@@ -364,7 +364,7 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">[Decision(options="Her identity?;Do you mean…",values="1;2")]
+    <t xml:space="preserve">[Decision(options="Her identity?;Do you mean...",values="1;2")]
 </t>
   </si>
   <si>
@@ -392,7 +392,7 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">[Decision(options="What happened to him?;Keep going. I’m not intimidated.",values="1;2")]
+    <t xml:space="preserve">[Decision(options="What happened to him?;Keep going. I'm not intimidated.",values="1;2")]
 </t>
   </si>
   <si>
@@ -428,7 +428,7 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">[Decision(options="Ceylon?!;How long have you been here…",values="1;2")]
+    <t xml:space="preserve">[Decision(options="Ceylon?!;How long have you been here...",values="1;2")]
 </t>
   </si>
   <si>
